--- a/config_sig.xlsx
+++ b/config_sig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenic\Dropbox\gitdir\open_chrome_bookmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF08DD0-7AE5-406E-81D0-7FC35B3371B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77385CB-D33D-4A84-9F7C-078816AB77EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,8 +466,8 @@
   </sheetPr>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -538,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="2">
-        <v>-1</v>
+        <v>-0.2</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
